--- a/Anschlussplan_SBD.minimill.xlsx
+++ b/Anschlussplan_SBD.minimill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bloob2\OneDrive\CNC\LinuxCNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B078E8-D851-42C2-99FA-37A11AB61099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E98A23-6BEA-4190-9F45-CB7DE3E8EA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="1500" windowWidth="29040" windowHeight="17520" xr2:uid="{CE1E6FC0-5CD1-44A7-9439-A9D7959D1DF3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="219">
   <si>
     <t>hm2_7i76e.0.7i76.0.0.input-00</t>
   </si>
@@ -660,13 +660,49 @@
   </si>
   <si>
     <t>Kontrollleuchte - Y Homed</t>
+  </si>
+  <si>
+    <t>ALARM X</t>
+  </si>
+  <si>
+    <t>ALARM Y</t>
+  </si>
+  <si>
+    <t>ALARM Z</t>
+  </si>
+  <si>
+    <t>Türen PILZ PSEN</t>
+  </si>
+  <si>
+    <t>Beckhoff EL3202 TEMP Eingänge</t>
+  </si>
+  <si>
+    <t>lcec.0.EL3202.temp-0-temperature</t>
+  </si>
+  <si>
+    <t>lcec.0.EL3202.temp-1-temperature</t>
+  </si>
+  <si>
+    <t>hm2_7i76e.0.7i76.0.0.analogin0</t>
+  </si>
+  <si>
+    <t>hm2_7i76e.0.7i76.0.0.analogin1</t>
+  </si>
+  <si>
+    <t>hm2_7i76e.0.7i76.0.0.analogin2</t>
+  </si>
+  <si>
+    <t>hm2_7i76e.0.7i76.0.0.analogin3</t>
+  </si>
+  <si>
+    <t>MESA 7i76EU - Eingänge - ANALOG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,8 +755,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,6 +899,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -854,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -890,18 +954,24 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1244,15 +1314,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FFB62E-9D60-4447-8D34-AB8C6E19B7D0}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39.42578125" bestFit="1" customWidth="1"/>
@@ -1262,41 +1333,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="13" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="E6" s="21" t="s">
+      <c r="B6" s="28"/>
+      <c r="E6" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="I6" s="20" t="s">
+      <c r="F6" s="16"/>
+      <c r="I6" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="M6" s="13" t="s">
+      <c r="J6" s="16"/>
+      <c r="M6" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="Q6" s="19" t="s">
+      <c r="N6" s="16"/>
+      <c r="Q6" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="R6" s="14"/>
+      <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="E7" s="7" t="s">
         <v>80</v>
       </c>
@@ -1326,6 +1400,7 @@
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="B8" s="1"/>
       <c r="E8" s="7" t="s">
         <v>81</v>
       </c>
@@ -1351,6 +1426,9 @@
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="E9" s="7" t="s">
         <v>82</v>
       </c>
@@ -1380,6 +1458,7 @@
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="B10" s="1"/>
       <c r="E10" s="7" t="s">
         <v>83</v>
       </c>
@@ -1403,6 +1482,9 @@
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="E11" s="7" t="s">
         <v>84</v>
       </c>
@@ -1430,6 +1512,7 @@
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="B12" s="1"/>
       <c r="E12" s="7" t="s">
         <v>85</v>
       </c>
@@ -1453,10 +1536,13 @@
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="B13" s="1"/>
       <c r="E13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="I13" s="3" t="s">
         <v>152</v>
       </c>
@@ -1476,6 +1562,7 @@
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="B14" s="1"/>
       <c r="E14" s="7" t="s">
         <v>87</v>
       </c>
@@ -1497,6 +1584,7 @@
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="B15" s="1"/>
       <c r="E15" s="7" t="s">
         <v>88</v>
       </c>
@@ -1514,6 +1602,7 @@
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="B16" s="1"/>
       <c r="E16" s="7" t="s">
         <v>89</v>
       </c>
@@ -1529,6 +1618,7 @@
       <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="B17" s="1"/>
       <c r="E17" s="7" t="s">
         <v>90</v>
       </c>
@@ -1536,20 +1626,20 @@
       <c r="I17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="N17" s="14"/>
-      <c r="Q17" s="18" t="s">
+      <c r="N17" s="16"/>
+      <c r="Q17" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="R17" s="14"/>
+      <c r="R17" s="16"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="B18" s="1"/>
       <c r="E18" s="7" t="s">
         <v>91</v>
       </c>
@@ -1575,6 +1665,7 @@
       <c r="A19" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="B19" s="1"/>
       <c r="E19" s="7" t="s">
         <v>92</v>
       </c>
@@ -1598,6 +1689,7 @@
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="B20" s="1"/>
       <c r="E20" s="7" t="s">
         <v>93</v>
       </c>
@@ -1621,6 +1713,7 @@
       <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="B21" s="1"/>
       <c r="E21" s="7" t="s">
         <v>94</v>
       </c>
@@ -1644,6 +1737,7 @@
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="B22" s="1"/>
       <c r="E22" s="7" t="s">
         <v>95</v>
       </c>
@@ -1659,6 +1753,7 @@
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="B23" s="1"/>
       <c r="F23" s="1"/>
       <c r="I23" s="3" t="s">
         <v>161</v>
@@ -1671,28 +1766,30 @@
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="B24" s="1"/>
       <c r="F24" s="1"/>
       <c r="I24" s="3" t="s">
         <v>162</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="M24" s="16" t="s">
+      <c r="M24" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="N24" s="14"/>
-      <c r="Q24" s="17" t="s">
+      <c r="N24" s="16"/>
+      <c r="Q24" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="R24" s="14"/>
+      <c r="R24" s="16"/>
     </row>
     <row r="25" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="B25" s="1"/>
+      <c r="E25" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="16"/>
       <c r="I25" s="3" t="s">
         <v>163</v>
       </c>
@@ -1712,6 +1809,7 @@
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="B26" s="1"/>
       <c r="E26" s="8" t="s">
         <v>96</v>
       </c>
@@ -1733,6 +1831,7 @@
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B27" s="1"/>
       <c r="E27" s="8" t="s">
         <v>97</v>
       </c>
@@ -1754,6 +1853,7 @@
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="B28" s="1"/>
       <c r="E28" s="8" t="s">
         <v>98</v>
       </c>
@@ -1775,6 +1875,7 @@
       <c r="A29" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="B29" s="1"/>
       <c r="E29" s="8" t="s">
         <v>99</v>
       </c>
@@ -1796,6 +1897,7 @@
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="B30" s="1"/>
       <c r="E30" s="8" t="s">
         <v>100</v>
       </c>
@@ -1817,6 +1919,7 @@
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="B31" s="1"/>
       <c r="E31" s="8" t="s">
         <v>101</v>
       </c>
@@ -1838,6 +1941,7 @@
       <c r="A32" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B32" s="1"/>
       <c r="E32" s="8" t="s">
         <v>102</v>
       </c>
@@ -1859,6 +1963,7 @@
       <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="B33" s="1"/>
       <c r="E33" s="8" t="s">
         <v>103</v>
       </c>
@@ -1882,6 +1987,7 @@
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="B34" s="1"/>
       <c r="E34" s="8" t="s">
         <v>104</v>
       </c>
@@ -1905,6 +2011,7 @@
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="B35" s="1"/>
       <c r="E35" s="8" t="s">
         <v>105</v>
       </c>
@@ -1926,6 +2033,7 @@
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="B36" s="1"/>
       <c r="E36" s="8" t="s">
         <v>106</v>
       </c>
@@ -1947,6 +2055,7 @@
       <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="B37" s="1"/>
       <c r="E37" s="8" t="s">
         <v>107</v>
       </c>
@@ -1968,6 +2077,7 @@
       <c r="A38" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="B38" s="1"/>
       <c r="E38" s="8" t="s">
         <v>108</v>
       </c>
@@ -1989,6 +2099,7 @@
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="B39" s="1"/>
       <c r="E39" s="8" t="s">
         <v>109</v>
       </c>
@@ -2006,6 +2117,7 @@
       <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="B40" s="1"/>
       <c r="E40" s="8" t="s">
         <v>110</v>
       </c>
@@ -2023,159 +2135,230 @@
       <c r="A41" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="B41" s="1"/>
       <c r="E41" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F41" s="1"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="E45" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" s="25"/>
+      <c r="I45" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="J45" s="28"/>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="E46" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="I46" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="E47" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="I47" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="1"/>
+      <c r="I48" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="1"/>
+      <c r="I49" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="B70" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="I45:J45"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E25:F25"/>
@@ -2183,9 +2366,6 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="M24:N24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q6:R6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Anschlussplan_SBD.minimill.xlsx
+++ b/Anschlussplan_SBD.minimill.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bloob2\OneDrive\CNC\LinuxCNC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E98A23-6BEA-4190-9F45-CB7DE3E8EA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="1500" windowWidth="29040" windowHeight="17520" xr2:uid="{CE1E6FC0-5CD1-44A7-9439-A9D7959D1DF3}"/>
+    <workbookView xWindow="51480" yWindow="1500" windowWidth="29040" windowHeight="16605"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="228">
   <si>
     <t>hm2_7i76e.0.7i76.0.0.input-00</t>
   </si>
@@ -696,13 +690,40 @@
   </si>
   <si>
     <t>MESA 7i76EU - Eingänge - ANALOG</t>
+  </si>
+  <si>
+    <t>Beckhoff EL2034 -1- Ausgänge</t>
+  </si>
+  <si>
+    <t>lcec.0.EL2034_1.dout-0</t>
+  </si>
+  <si>
+    <t>lcec.0.EL2034_1.dout-3</t>
+  </si>
+  <si>
+    <t>lcec.0.EL2034_1.dout-2</t>
+  </si>
+  <si>
+    <t>lcec.0.EL2034_1.dout-1</t>
+  </si>
+  <si>
+    <t>Poti Spindel</t>
+  </si>
+  <si>
+    <t>Poti Vorschub</t>
+  </si>
+  <si>
+    <t>Poti G0</t>
+  </si>
+  <si>
+    <t>Spindellast 0-10V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,7 +799,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -905,6 +926,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -918,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -956,22 +989,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1304,67 +1342,67 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FFB62E-9D60-4447-8D34-AB8C6E19B7D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="34" customWidth="1"/>
-    <col min="18" max="18" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" ht="46.5">
       <c r="A1" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="26.25">
       <c r="A2" s="14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:18" ht="20.25">
+      <c r="A6" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="E6" s="17" t="s">
+      <c r="B6" s="23"/>
+      <c r="E6" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="I6" s="15" t="s">
+      <c r="F6" s="17"/>
+      <c r="I6" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="M6" s="18" t="s">
+      <c r="J6" s="17"/>
+      <c r="M6" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="Q6" s="23" t="s">
+      <c r="N6" s="17"/>
+      <c r="Q6" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R6" s="17"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1434,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -1422,7 +1460,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -1454,7 +1492,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -1478,7 +1516,7 @@
       </c>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.75">
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
@@ -1508,7 +1546,7 @@
       </c>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15.75">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
@@ -1532,7 +1570,7 @@
       </c>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.75">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1558,7 +1596,7 @@
       </c>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.75">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
@@ -1580,7 +1618,7 @@
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15.75">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -1598,7 +1636,7 @@
       <c r="N15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15.75">
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
@@ -1614,7 +1652,7 @@
       <c r="N16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="20.25">
       <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
@@ -1626,16 +1664,16 @@
       <c r="I17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="Q17" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="R17" s="16"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N17" s="17"/>
+      <c r="Q17" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="R17" s="17"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
@@ -1655,13 +1693,13 @@
         <v>177</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15.75">
       <c r="A19" s="6" t="s">
         <v>12</v>
       </c>
@@ -1681,11 +1719,11 @@
         <v>178</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15.75">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
@@ -1705,11 +1743,11 @@
         <v>179</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15.75">
       <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
@@ -1729,11 +1767,11 @@
         <v>180</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="15.75">
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
@@ -1749,7 +1787,7 @@
       <c r="N22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="20.25">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
@@ -1759,10 +1797,13 @@
         <v>161</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="M23" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="N23" s="30"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="20.25">
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
@@ -1772,30 +1813,30 @@
         <v>162</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="M24" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="N24" s="16"/>
-      <c r="Q24" s="21" t="s">
+      <c r="M24" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="Q24" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="R24" s="16"/>
-    </row>
-    <row r="25" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="R24" s="17"/>
+    </row>
+    <row r="25" spans="1:18" ht="20.25">
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="17"/>
       <c r="I25" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="M25" s="11" t="s">
-        <v>64</v>
+      <c r="M25" s="31" t="s">
+        <v>133</v>
       </c>
       <c r="N25" s="1"/>
       <c r="Q25" s="12" t="s">
@@ -1805,7 +1846,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15.75">
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
@@ -1818,8 +1859,8 @@
         <v>164</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="M26" s="11" t="s">
-        <v>65</v>
+      <c r="M26" s="31" t="s">
+        <v>134</v>
       </c>
       <c r="N26" s="1"/>
       <c r="Q26" s="12" t="s">
@@ -1827,7 +1868,7 @@
       </c>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15.75">
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
@@ -1840,8 +1881,8 @@
         <v>140</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="M27" s="11" t="s">
-        <v>66</v>
+      <c r="M27" s="31" t="s">
+        <v>135</v>
       </c>
       <c r="N27" s="1"/>
       <c r="Q27" s="12" t="s">
@@ -1849,7 +1890,7 @@
       </c>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="15.75">
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
@@ -1862,16 +1903,12 @@
         <v>195</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="M28" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="N28" s="1"/>
       <c r="Q28" s="12" t="s">
         <v>182</v>
       </c>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="15.75">
       <c r="A29" s="6" t="s">
         <v>22</v>
       </c>
@@ -1884,16 +1921,12 @@
         <v>141</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="M29" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="N29" s="1"/>
       <c r="Q29" s="12" t="s">
         <v>182</v>
       </c>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="15.75">
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
@@ -1906,16 +1939,12 @@
         <v>142</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="M30" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="N30" s="1"/>
       <c r="Q30" s="12" t="s">
         <v>182</v>
       </c>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="15.75">
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
@@ -1928,16 +1957,12 @@
         <v>143</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="M31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="N31" s="1"/>
       <c r="Q31" s="12" t="s">
         <v>182</v>
       </c>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="15.75">
       <c r="A32" s="6" t="s">
         <v>25</v>
       </c>
@@ -1950,16 +1975,12 @@
         <v>144</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="M32" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="N32" s="1"/>
       <c r="Q32" s="12" t="s">
         <v>182</v>
       </c>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="15.75">
       <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
@@ -1972,10 +1993,6 @@
         <v>145</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="M33" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="N33" s="1"/>
       <c r="Q33" s="12" t="s">
         <v>183</v>
       </c>
@@ -1983,7 +2000,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15.75">
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
@@ -1996,10 +2013,6 @@
         <v>146</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="M34" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="N34" s="1"/>
       <c r="Q34" s="12" t="s">
         <v>183</v>
       </c>
@@ -2007,7 +2020,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="15.75">
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
@@ -2020,16 +2033,12 @@
         <v>147</v>
       </c>
       <c r="J35" s="1"/>
-      <c r="M35" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N35" s="1"/>
       <c r="Q35" s="12" t="s">
         <v>183</v>
       </c>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="15.75">
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
@@ -2042,16 +2051,12 @@
         <v>148</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="M36" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="N36" s="1"/>
       <c r="Q36" s="12" t="s">
         <v>183</v>
       </c>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="15.75">
       <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
@@ -2064,16 +2069,12 @@
         <v>149</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="M37" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="N37" s="1"/>
       <c r="Q37" s="12" t="s">
         <v>183</v>
       </c>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="15.75">
       <c r="A38" s="6" t="s">
         <v>31</v>
       </c>
@@ -2086,16 +2087,12 @@
         <v>196</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="M38" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="N38" s="1"/>
       <c r="Q38" s="12" t="s">
         <v>183</v>
       </c>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="15.75">
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
@@ -2104,16 +2101,12 @@
         <v>109</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="M39" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="N39" s="1"/>
       <c r="Q39" s="12" t="s">
         <v>183</v>
       </c>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="15.75">
       <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
@@ -2122,16 +2115,12 @@
         <v>110</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="M40" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N40" s="1"/>
       <c r="Q40" s="12" t="s">
         <v>183</v>
       </c>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="15.75">
       <c r="A41" s="6" t="s">
         <v>34</v>
       </c>
@@ -2142,39 +2131,43 @@
       <c r="F41" s="1"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="15.75">
       <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="15.75">
       <c r="A43" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="15.75">
       <c r="A44" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="20.25">
       <c r="A45" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F45" s="25"/>
-      <c r="I45" s="27" t="s">
+      <c r="F45" s="21"/>
+      <c r="I45" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="J45" s="28"/>
-    </row>
-    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J45" s="23"/>
+      <c r="M45" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="N45" s="17"/>
+    </row>
+    <row r="46" spans="1:18" ht="15.75">
       <c r="A46" s="6" t="s">
         <v>39</v>
       </c>
@@ -2186,9 +2179,15 @@
       <c r="I46" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" ht="15.75">
       <c r="A47" s="6" t="s">
         <v>40</v>
       </c>
@@ -2200,160 +2199,231 @@
       <c r="I47" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J47" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" ht="15.75">
       <c r="A48" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="E48" s="26"/>
+      <c r="E48" s="15"/>
       <c r="F48" s="1"/>
       <c r="I48" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J48" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75">
       <c r="A49" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="E49" s="26"/>
+      <c r="E49" s="15"/>
       <c r="F49" s="1"/>
       <c r="I49" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J49" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75">
       <c r="A50" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M50" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75">
       <c r="A51" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M51" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75">
       <c r="A52" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M52" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75">
       <c r="A53" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M53" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75">
       <c r="A54" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M54" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75">
       <c r="A55" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M55" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.75">
       <c r="A56" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M56" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75">
       <c r="A57" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M57" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75">
       <c r="A58" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M58" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:14" ht="15.75">
       <c r="A59" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M59" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75">
       <c r="A60" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M60" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75">
       <c r="A61" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M61" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:14" ht="15.75">
       <c r="A62" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="15.75">
       <c r="A63" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="15.75">
       <c r="A64" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15.75">
       <c r="A65" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15.75">
       <c r="A66" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15.75">
       <c r="A67" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="15.75">
       <c r="A68" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15.75">
       <c r="A69" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="15.75">
       <c r="A70" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B70" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M23:N23"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="Q6:R6"/>
@@ -2362,10 +2432,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M24:N24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
